--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_16.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_16.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>349474.8425133683</v>
+        <v>342180.6924965107</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18249983.41937635</v>
+        <v>17287498.18481127</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3650026.315129927</v>
+        <v>2706694.536732691</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6815080.939713522</v>
+        <v>7178242.609608428</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>35.16791248334776</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -716,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.3203511418006</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -826,13 +828,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>90.30617524481291</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -862,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -880,7 +882,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>34.7181121725785</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -896,13 +898,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>8.997990844513865</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>90.71554922518695</v>
       </c>
     </row>
     <row r="6">
@@ -1066,10 +1068,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170476</v>
       </c>
       <c r="H7" t="n">
-        <v>18.05677735225757</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
@@ -1148,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>153.7786070829305</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1190,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>45.50306732735552</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1306,7 +1308,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T10" t="n">
-        <v>122.9742767430576</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -1379,7 +1381,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1421,22 +1423,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>232.2523964141384</v>
+        <v>120.9955619497016</v>
       </c>
     </row>
     <row r="12">
@@ -1604,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>396.2906240266967</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>75.78308005187024</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1658,13 +1660,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1853,16 +1855,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791316623</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>110.1010420567275</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -2014,13 +2016,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>73.01514676193496</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2099,7 +2101,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791316623</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2251,7 +2253,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>24.34318456170439</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2573,7 +2575,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791316623</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2728,10 +2730,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>136.0564930766996</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>75.86622810093029</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2810,7 +2812,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T29" t="n">
         <v>217.8665548556918</v>
@@ -2962,10 +2964,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>24.3431845617044</v>
       </c>
       <c r="H31" t="n">
-        <v>18.05677735225717</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T32" t="n">
         <v>217.8665548556918</v>
@@ -3199,7 +3201,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>24.3431845617044</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3235,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3284,7 +3286,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3436,10 +3438,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>24.34318456170439</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>18.05677735225719</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3758,7 +3760,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791316623</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3974,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>167.9901893442943</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4150,10 +4152,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1824.618792525831</v>
+        <v>1171.796632052941</v>
       </c>
       <c r="C2" t="n">
-        <v>1386.476319709255</v>
+        <v>1171.796632052941</v>
       </c>
       <c r="D2" t="n">
-        <v>950.5665348836992</v>
+        <v>1171.796632052941</v>
       </c>
       <c r="E2" t="n">
-        <v>516.7917900419943</v>
+        <v>1171.796632052941</v>
       </c>
       <c r="F2" t="n">
-        <v>88.92436045120206</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G2" t="n">
-        <v>53.40121652862857</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H2" t="n">
         <v>53.40121652862857</v>
@@ -4331,22 +4333,22 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
-        <v>488.6559039815464</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="M2" t="n">
-        <v>488.6559039815464</v>
+        <v>1840.066707136593</v>
       </c>
       <c r="N2" t="n">
-        <v>632.7278666362199</v>
+        <v>1840.066707136593</v>
       </c>
       <c r="O2" t="n">
-        <v>1293.567921177998</v>
+        <v>1840.066707136593</v>
       </c>
       <c r="P2" t="n">
-        <v>1954.407975719777</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="Q2" t="n">
         <v>2500.906761678372</v>
@@ -4364,16 +4366,16 @@
         <v>2670.060826431428</v>
       </c>
       <c r="V2" t="n">
-        <v>2670.060826431428</v>
+        <v>2404.080673762943</v>
       </c>
       <c r="W2" t="n">
-        <v>2670.060826431428</v>
+        <v>1999.225219173976</v>
       </c>
       <c r="X2" t="n">
-        <v>2250.918363010739</v>
+        <v>1580.082755753287</v>
       </c>
       <c r="Y2" t="n">
-        <v>2250.918363010739</v>
+        <v>1171.796632052941</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>559.5729615199214</v>
+        <v>1512.992809943912</v>
       </c>
       <c r="C3" t="n">
-        <v>453.1165003565636</v>
+        <v>1406.536348780555</v>
       </c>
       <c r="D3" t="n">
-        <v>358.0262115031169</v>
+        <v>1311.446059927108</v>
       </c>
       <c r="E3" t="n">
-        <v>263.9057968300706</v>
+        <v>1217.325645254062</v>
       </c>
       <c r="F3" t="n">
-        <v>180.5219584462322</v>
+        <v>1133.941806870223</v>
       </c>
       <c r="G3" t="n">
-        <v>95.13686871241609</v>
+        <v>1048.556717136407</v>
       </c>
       <c r="H3" t="n">
-        <v>53.40121652862857</v>
+        <v>1006.82106495262</v>
       </c>
       <c r="I3" t="n">
-        <v>79.46488968908616</v>
+        <v>1032.884738113077</v>
       </c>
       <c r="J3" t="n">
-        <v>404.0232146552985</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="K3" t="n">
-        <v>404.0232146552985</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="L3" t="n">
-        <v>404.0232146552985</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="M3" t="n">
-        <v>1058.729261281022</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="N3" t="n">
-        <v>1058.729261281022</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="O3" t="n">
-        <v>1058.729261281022</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="P3" t="n">
-        <v>1058.729261281022</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="Q3" t="n">
-        <v>1599.468199913098</v>
+        <v>2552.888048337089</v>
       </c>
       <c r="R3" t="n">
-        <v>1716.640978007438</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S3" t="n">
-        <v>1653.185540455821</v>
+        <v>2606.605388879811</v>
       </c>
       <c r="T3" t="n">
-        <v>1523.006896786422</v>
+        <v>2476.426745210413</v>
       </c>
       <c r="U3" t="n">
-        <v>1346.67034978639</v>
+        <v>2300.090198210381</v>
       </c>
       <c r="V3" t="n">
-        <v>1147.55283184839</v>
+        <v>2100.972680272381</v>
       </c>
       <c r="W3" t="n">
-        <v>962.2300775815838</v>
+        <v>1915.649926005575</v>
       </c>
       <c r="X3" t="n">
-        <v>807.3626418204638</v>
+        <v>1760.782490244455</v>
       </c>
       <c r="Y3" t="n">
-        <v>680.8768625996845</v>
+        <v>1634.296711023675</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1132.45937714051</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C4" t="n">
-        <v>959.897665623735</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D4" t="n">
-        <v>794.0196728252577</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E4" t="n">
-        <v>624.2616690759949</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F4" t="n">
-        <v>447.554615037751</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="G4" t="n">
-        <v>281.9633400635787</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H4" t="n">
         <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862855</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J4" t="n">
         <v>139.9809016933184</v>
@@ -4492,7 +4494,7 @@
         <v>414.739356264454</v>
       </c>
       <c r="L4" t="n">
-        <v>832.9492380324151</v>
+        <v>832.9492380324152</v>
       </c>
       <c r="M4" t="n">
         <v>1292.433105213328</v>
@@ -4510,28 +4512,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2670.060826431428</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T4" t="n">
-        <v>2424.181380009883</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U4" t="n">
-        <v>2145.748379262989</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V4" t="n">
-        <v>1858.792871133419</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W4" t="n">
-        <v>1586.766466719711</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X4" t="n">
-        <v>1551.697666545389</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y4" t="n">
-        <v>1324.277995859497</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>481.6854354922808</v>
+        <v>1789.512437976118</v>
       </c>
       <c r="C5" t="n">
-        <v>481.6854354922808</v>
+        <v>1351.369965159541</v>
       </c>
       <c r="D5" t="n">
-        <v>481.6854354922808</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="E5" t="n">
         <v>481.6854354922808</v>
@@ -4565,52 +4567,52 @@
         <v>53.40121652862857</v>
       </c>
       <c r="J5" t="n">
-        <v>53.40121652862857</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>53.40121652862857</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>714.241271070407</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M5" t="n">
-        <v>1375.081325612186</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N5" t="n">
-        <v>2035.921380153964</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
-        <v>2035.921380153964</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>2670.060826431428</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q5" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R5" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>2366.341725488304</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>2107.119422805321</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V5" t="n">
-        <v>1744.502472739147</v>
+        <v>2307.443876365255</v>
       </c>
       <c r="W5" t="n">
-        <v>1735.413593098224</v>
+        <v>2307.443876365255</v>
       </c>
       <c r="X5" t="n">
-        <v>1316.271129677535</v>
+        <v>2307.443876365255</v>
       </c>
       <c r="Y5" t="n">
-        <v>907.9850059771886</v>
+        <v>2215.812008461025</v>
       </c>
     </row>
     <row r="6">
@@ -4641,25 +4643,25 @@
         <v>53.40121652862857</v>
       </c>
       <c r="I6" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>397.8892067392438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
         <v>1058.729261281022</v>
@@ -4699,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>922.1364226482442</v>
+        <v>762.8950539462408</v>
       </c>
       <c r="C7" t="n">
-        <v>749.5747111314691</v>
+        <v>590.3333424294657</v>
       </c>
       <c r="D7" t="n">
-        <v>583.6967183329918</v>
+        <v>424.4553496309884</v>
       </c>
       <c r="E7" t="n">
-        <v>413.9387145837291</v>
+        <v>254.6973458817257</v>
       </c>
       <c r="F7" t="n">
-        <v>237.2316605454853</v>
+        <v>77.99029184348186</v>
       </c>
       <c r="G7" t="n">
-        <v>71.64038557131298</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H7" t="n">
         <v>53.40121652862857</v>
@@ -4723,13 +4725,13 @@
         <v>53.40121652862857</v>
       </c>
       <c r="J7" t="n">
-        <v>139.9809016933188</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>414.7393562644543</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>832.9492380324155</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
         <v>1292.433105213328</v>
@@ -4750,25 +4752,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>2670.060826431428</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T7" t="n">
-        <v>2424.181380009883</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U7" t="n">
-        <v>2145.748379262989</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V7" t="n">
-        <v>1858.792871133419</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W7" t="n">
-        <v>1586.766466719711</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X7" t="n">
-        <v>1341.374712053123</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y7" t="n">
-        <v>1113.955041367231</v>
+        <v>954.7136726652279</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1075.159834655252</v>
+        <v>1789.512437976118</v>
       </c>
       <c r="C8" t="n">
-        <v>637.0173618386752</v>
+        <v>1351.369965159541</v>
       </c>
       <c r="D8" t="n">
-        <v>637.0173618386752</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="E8" t="n">
-        <v>637.0173618386752</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F8" t="n">
-        <v>209.149932247883</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="G8" t="n">
-        <v>209.149932247883</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="H8" t="n">
         <v>53.81800590148856</v>
@@ -4808,22 +4810,22 @@
         <v>53.40121652862857</v>
       </c>
       <c r="L8" t="n">
-        <v>714.241271070407</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M8" t="n">
-        <v>1375.081325612186</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="N8" t="n">
-        <v>2035.921380153964</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="O8" t="n">
-        <v>2035.921380153964</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>2670.060826431428</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q8" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
@@ -4838,16 +4840,16 @@
         <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>2307.443876365255</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>1902.588421776288</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="X8" t="n">
-        <v>1483.445958355599</v>
+        <v>2624.098132161372</v>
       </c>
       <c r="Y8" t="n">
-        <v>1075.159834655252</v>
+        <v>2215.812008461025</v>
       </c>
     </row>
     <row r="9">
@@ -4884,19 +4886,19 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
         <v>1058.729261281022</v>
@@ -4936,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1043.799427915185</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C10" t="n">
-        <v>871.2377163984103</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D10" t="n">
-        <v>705.359723599933</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E10" t="n">
-        <v>535.6017198506702</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F10" t="n">
-        <v>358.8946658124264</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G10" t="n">
-        <v>193.303390838254</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H10" t="n">
         <v>53.40121652862857</v>
@@ -4987,25 +4989,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2670.060826431428</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T10" t="n">
-        <v>2545.844385276825</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U10" t="n">
-        <v>2267.41138452993</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V10" t="n">
-        <v>1980.45587640036</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W10" t="n">
-        <v>1708.429471986652</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X10" t="n">
-        <v>1463.037717320064</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y10" t="n">
-        <v>1235.618046634173</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="11">
@@ -5015,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1789.095648603258</v>
+        <v>1361.228219012466</v>
       </c>
       <c r="C11" t="n">
-        <v>1350.953175786681</v>
+        <v>923.085746195889</v>
       </c>
       <c r="D11" t="n">
-        <v>915.0433909611256</v>
+        <v>487.1759613703334</v>
       </c>
       <c r="E11" t="n">
-        <v>481.2686461194209</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="F11" t="n">
         <v>53.40121652862857</v>
@@ -5042,16 +5044,16 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K11" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L11" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M11" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N11" t="n">
-        <v>632.7278666362199</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O11" t="n">
         <v>1293.567921177998</v>
@@ -5069,22 +5071,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T11" t="n">
-        <v>2449.993599304467</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U11" t="n">
-        <v>2449.993599304467</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V11" t="n">
-        <v>2449.993599304467</v>
+        <v>2307.443876365255</v>
       </c>
       <c r="W11" t="n">
-        <v>2449.993599304467</v>
+        <v>1902.588421776288</v>
       </c>
       <c r="X11" t="n">
-        <v>2449.993599304467</v>
+        <v>1483.445958355599</v>
       </c>
       <c r="Y11" t="n">
-        <v>2215.395219088166</v>
+        <v>1361.228219012466</v>
       </c>
     </row>
     <row r="12">
@@ -5115,10 +5117,10 @@
         <v>53.40121652862857</v>
       </c>
       <c r="I12" t="n">
-        <v>73.33088177303142</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J12" t="n">
-        <v>397.8892067392438</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K12" t="n">
         <v>1058.729261281022</v>
@@ -5252,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>454.7990479053647</v>
+        <v>1437.776784721425</v>
       </c>
       <c r="C14" t="n">
-        <v>454.7990479053647</v>
+        <v>999.6343119048488</v>
       </c>
       <c r="D14" t="n">
-        <v>454.7990479053647</v>
+        <v>563.7245270792932</v>
       </c>
       <c r="E14" t="n">
-        <v>454.7990479053647</v>
+        <v>129.9497822375884</v>
       </c>
       <c r="F14" t="n">
-        <v>454.7990479053647</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G14" t="n">
         <v>53.40121652862857</v>
@@ -5279,13 +5281,13 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K14" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L14" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M14" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N14" t="n">
         <v>1149.495958523325</v>
@@ -5306,22 +5308,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T14" t="n">
-        <v>2449.993599304467</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U14" t="n">
-        <v>2449.993599304467</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V14" t="n">
-        <v>2087.376649238293</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W14" t="n">
-        <v>1682.521194649327</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X14" t="n">
-        <v>1263.378731228637</v>
+        <v>1846.062908421772</v>
       </c>
       <c r="Y14" t="n">
-        <v>855.0926075282906</v>
+        <v>1437.776784721425</v>
       </c>
     </row>
     <row r="15">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1361.645008385326</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>923.502535568749</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>487.5927507431934</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>53.81800590148855</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>53.81800590148855</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G17" t="n">
-        <v>53.81800590148855</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H17" t="n">
-        <v>53.81800590148855</v>
+        <v>102.6776296436399</v>
       </c>
       <c r="I17" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>488.6559039815464</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>1149.495958523325</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L17" t="n">
-        <v>1293.567921177998</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M17" t="n">
-        <v>1293.567921177998</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N17" t="n">
-        <v>1293.567921177998</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O17" t="n">
-        <v>1293.567921177998</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P17" t="n">
-        <v>1954.407975719776</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q17" t="n">
-        <v>2500.906761678371</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R17" t="n">
-        <v>2670.060826431428</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>2670.060826431428</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>2670.060826431428</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>2670.060826431428</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>2307.443876365254</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>2307.443876365254</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>2196.23070257058</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>1787.944578870233</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>559.5729615199214</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>453.1165003565636</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>358.0262115031169</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>263.9057968300706</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>180.5219584462322</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>95.13686871241609</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>79.46488968908616</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>404.0232146552985</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>404.0232146552985</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>404.0232146552985</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>404.0232146552985</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>404.0232146552985</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>404.0232146552985</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1058.729261281022</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1599.468199913098</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1716.640978007438</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1653.185540455821</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1523.006896786422</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1346.67034978639</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1147.55283184839</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>962.2300775815838</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>807.3626418204638</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>680.8768625996845</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>900.7186013536161</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>728.1568898368411</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>562.2788970383638</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>392.520893289101</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>215.8138392508572</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>215.8138392508572</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>142.0611657539532</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>139.9809016933184</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>414.739356264454</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>832.9492380324151</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1292.433105213328</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1734.691908370973</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2154.361157596754</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2501.868051567096</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2670.060826431428</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2648.6430051368</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2648.6430051368</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2402.763558715255</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2124.330557968361</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1837.375049838791</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1565.348645425083</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1319.956890758495</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1092.537220072603</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5738,13 +5740,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436399</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5759,22 +5761,22 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
         <v>5029.390139722817</v>
@@ -5789,13 +5791,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5884,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>639.1929661716164</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>473.3149733731391</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>303.5569696238763</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>126.8499155856325</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
         <v>102.2608402707796</v>
@@ -5935,25 +5937,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5969,19 +5971,19 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D23" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E23" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771593</v>
       </c>
       <c r="G23" t="n">
         <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3346.878440713113</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>3174.316729196338</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>3008.438736397861</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>2838.680732648598</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>2661.973678610354</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J25" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K25" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M25" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N25" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O25" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P25" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q25" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>5094.802844496297</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>4848.923398074752</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>4570.490397327858</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>4283.534889198289</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>4011.50848478458</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>3766.116730117992</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>3538.697059432101</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6215,10 +6217,10 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436399</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6230,16 +6232,16 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>1431.851786213076</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
-        <v>3572.656769371182</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>3572.656769371182</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
         <v>4397.38916282733</v>
@@ -6300,28 +6302,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J27" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K27" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L27" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M27" t="n">
-        <v>452.8828383974496</v>
+        <v>414.500552094942</v>
       </c>
       <c r="N27" t="n">
-        <v>452.8828383974496</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="O27" t="n">
-        <v>452.8828383974496</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P27" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q27" t="n">
         <v>1648.327823655249</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1181.319000882661</v>
+        <v>1090.187678435286</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365886</v>
+        <v>917.6259669185112</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>751.7479741200339</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>581.9899703707711</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>405.2829163325273</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>239.691641358355</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6411,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2473.041003752034</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2194.608003005139</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="V28" t="n">
-        <v>2117.975449367836</v>
+        <v>2026.844126920461</v>
       </c>
       <c r="W28" t="n">
-        <v>1845.949044954127</v>
+        <v>1754.817722506753</v>
       </c>
       <c r="X28" t="n">
-        <v>1600.55729028754</v>
+        <v>1509.425967840165</v>
       </c>
       <c r="Y28" t="n">
-        <v>1373.137619601648</v>
+        <v>1282.006297154273</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C29" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D29" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E29" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6467,46 +6469,46 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2528.913654892426</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S29" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T29" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U29" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V29" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X29" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="30">
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>970.9960463903949</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C31" t="n">
-        <v>798.4343348736198</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D31" t="n">
-        <v>632.5563420751425</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E31" t="n">
-        <v>462.7983383258798</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F31" t="n">
-        <v>286.091284287636</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G31" t="n">
-        <v>120.5000093134636</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6648,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2473.041003752034</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2194.608003005139</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V31" t="n">
-        <v>1907.65249487557</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W31" t="n">
-        <v>1635.626090461861</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X31" t="n">
-        <v>1390.234335795274</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y31" t="n">
-        <v>1162.814665109382</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="32">
@@ -6689,7 +6691,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H32" t="n">
         <v>102.6776296436396</v>
@@ -6701,28 +6703,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>936.6111322289576</v>
+        <v>605.8694973157604</v>
       </c>
       <c r="L32" t="n">
-        <v>2011.671098481817</v>
+        <v>1680.92946356862</v>
       </c>
       <c r="M32" t="n">
-        <v>2011.671098481817</v>
+        <v>2837.977298779171</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423628</v>
+        <v>3963.708282215618</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993934</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S32" t="n">
         <v>5029.390139722817</v>
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771593</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6941,46 +6943,46 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1431.851786213077</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>811.7546776883914</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C37" t="n">
-        <v>639.1929661716164</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D37" t="n">
-        <v>473.3149733731391</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E37" t="n">
-        <v>303.5569696238763</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F37" t="n">
-        <v>126.8499155856325</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7120,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>2313.799635050031</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U37" t="n">
-        <v>2035.366634303136</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.411126173566</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W37" t="n">
-        <v>1476.384721759858</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X37" t="n">
-        <v>1230.99296709327</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y37" t="n">
-        <v>1003.573296407379</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="38">
@@ -7160,40 +7162,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R38" t="n">
         <v>5113.04201353898</v>
@@ -7211,13 +7213,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436399</v>
       </c>
       <c r="I41" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>1021.773653488281</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2178.821488698832</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>3304.552472135279</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>4284.732138705585</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>512.2184310291439</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>512.2184310291439</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>512.2184310291439</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E44" t="n">
-        <v>512.2184310291439</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F44" t="n">
-        <v>512.2184310291439</v>
+        <v>793.2056155771593</v>
       </c>
       <c r="G44" t="n">
-        <v>342.5313710854123</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H44" t="n">
-        <v>53.40121652862856</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>53.40121652862856</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>53.40121652862856</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>714.2412710704069</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>1375.081325612185</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N44" t="n">
-        <v>2035.921380153963</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>2670.060826431428</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>2670.060826431428</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>2670.060826431428</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>2670.060826431428</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>2586.408952615265</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>2366.341725488303</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>2107.11942280532</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>1744.502472739146</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>1339.64701815018</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>920.5045547294905</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>512.2184310291439</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>559.5729615199214</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>453.1165003565636</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>358.0262115031169</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>263.9057968300706</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>180.5219584462322</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>95.13686871241609</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>79.46488968908616</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>404.0232146552985</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1058.729261281022</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L45" t="n">
-        <v>1058.729261281022</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M45" t="n">
-        <v>1058.729261281022</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N45" t="n">
-        <v>1058.729261281022</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O45" t="n">
-        <v>1058.729261281022</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P45" t="n">
-        <v>1058.729261281022</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1599.468199913098</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1716.640978007438</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1653.185540455821</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1523.006896786422</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1346.67034978639</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1147.55283184839</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>962.2300775815838</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>807.3626418204638</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>680.8768625996845</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>903.8972536055599</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C46" t="n">
-        <v>731.3355420887848</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D46" t="n">
-        <v>565.4575492903075</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E46" t="n">
-        <v>395.6995455410447</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F46" t="n">
-        <v>218.9924915028009</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G46" t="n">
-        <v>53.40121652862856</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H46" t="n">
-        <v>53.40121652862856</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I46" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>139.9809016933184</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>414.739356264454</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>832.9492380324151</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1292.433105213328</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1734.691908370973</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2154.361157596754</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2501.868051567096</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2670.060826431428</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2670.060826431428</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2651.821657388744</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T46" t="n">
-        <v>2405.942210967199</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U46" t="n">
-        <v>2127.509210220304</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V46" t="n">
-        <v>1840.553702090735</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W46" t="n">
-        <v>1568.527297677026</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X46" t="n">
-        <v>1323.135543010439</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y46" t="n">
-        <v>1095.715872324547</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
   </sheetData>
@@ -7979,25 +7981,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="N2" t="n">
-        <v>145.5272350047206</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>667.5152066078572</v>
       </c>
       <c r="Q2" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,13 +8060,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>661.3192390158822</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8213,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>667.5152066078571</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>667.5152066078572</v>
       </c>
-      <c r="N5" t="n">
-        <v>667.5152066078572</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>640.544895229762</v>
-      </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8289,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8307,10 +8309,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>347.9676668794093</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8371,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908102</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8456,25 +8458,25 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>585.1784344521125</v>
+      </c>
+      <c r="O8" t="n">
         <v>667.5152066078571</v>
       </c>
-      <c r="M8" t="n">
+      <c r="P8" t="n">
         <v>667.5152066078572</v>
       </c>
-      <c r="N8" t="n">
-        <v>667.5152066078572</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>640.544895229762</v>
-      </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,22 +8534,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8690,7 +8692,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8699,10 +8701,10 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>145.5272350047206</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>667.5152066078571</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="P11" t="n">
         <v>667.5152066078572</v>
@@ -8763,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>20.13097499434632</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>667.5152066078571</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8927,7 +8929,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8936,7 +8938,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>145.5272350047208</v>
@@ -9161,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>667.515206607857</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L17" t="n">
-        <v>145.5272350047205</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9245,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9407,10 +9409,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9878,19 +9880,19 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>60.59188538505123</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>833.0630236930783</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157522</v>
@@ -9948,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9960,19 +9962,19 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>315.3936483072348</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -10115,13 +10117,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>60.59188538505214</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10349,25 +10351,25 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>508.6956131767483</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>583.0591140826373</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>170.8626916697543</v>
@@ -10589,13 +10591,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>60.59188538505214</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10820,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,19 +11059,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>86.02274874679142</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11078,10 +11080,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>667.515206607857</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>667.5152066078568</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N44" t="n">
-        <v>667.5152066078567</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>640.5448952297625</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -22544,25 +22546,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>362.215940579621</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -22604,16 +22606,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>95.67042942371108</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22714,13 +22716,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>84.63380825304843</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22750,10 +22752,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22768,7 +22770,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>208.2197249473431</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22784,13 +22786,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -22832,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>391.8089091985631</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>313.4877132381562</v>
       </c>
     </row>
     <row r="6">
@@ -22954,10 +22956,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="H7" t="n">
-        <v>120.4463752142717</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -22990,7 +22992,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23018,16 +23020,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -23036,7 +23038,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>132.4602459282854</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23078,13 +23080,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.4479714591268</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23194,7 +23196,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -23227,10 +23229,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T10" t="n">
-        <v>120.4463752142717</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23267,7 +23269,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
@@ -23309,22 +23311,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>171.9508660492047</v>
+        <v>283.2077005136415</v>
       </c>
     </row>
     <row r="12">
@@ -23492,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>25.74595075336202</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>347.8056752430141</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
@@ -23546,13 +23548,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23741,13 +23743,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23780,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>304.8499967297549</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23902,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>65.48800580459427</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24139,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -24175,7 +24177,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24412,7 +24414,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24616,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2.446659489829642</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,16 +24651,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>208.2197249473435</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24850,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H31" t="n">
-        <v>120.4463752142721</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24886,7 +24888,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25087,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
@@ -25123,7 +25125,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25324,10 +25326,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>120.446375214272</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25360,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25862,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>229.3936637186745</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,10 +26073,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>465184.6054250566</v>
+        <v>465184.6054250567</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>465184.6054250567</v>
+        <v>465184.6054250566</v>
       </c>
     </row>
     <row r="4">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>465184.6054250566</v>
+        <v>724696.6117651357</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>724696.6117651354</v>
+        <v>724696.6117651357</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>724696.6117651357</v>
+        <v>724696.6117651354</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>465184.6054250566</v>
+        <v>724696.6117651357</v>
       </c>
     </row>
   </sheetData>
@@ -26326,22 +26328,22 @@
         <v>135276.4913831621</v>
       </c>
       <c r="G2" t="n">
-        <v>135276.4913831621</v>
+        <v>210743.033654941</v>
       </c>
       <c r="H2" t="n">
-        <v>210743.0336549409</v>
+        <v>210743.033654941</v>
       </c>
       <c r="I2" t="n">
         <v>210743.0336549409</v>
       </c>
       <c r="J2" t="n">
+        <v>210743.033654941</v>
+      </c>
+      <c r="K2" t="n">
         <v>210743.0336549409</v>
       </c>
-      <c r="K2" t="n">
-        <v>210743.033654941</v>
-      </c>
       <c r="L2" t="n">
-        <v>210743.033654941</v>
+        <v>210743.0336549409</v>
       </c>
       <c r="M2" t="n">
         <v>210743.0336549409</v>
@@ -26353,7 +26355,7 @@
         <v>210743.033654941</v>
       </c>
       <c r="P2" t="n">
-        <v>135276.4913831621</v>
+        <v>210743.0336549409</v>
       </c>
     </row>
     <row r="3">
@@ -26378,10 +26380,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>167396.1246670934</v>
       </c>
       <c r="H3" t="n">
-        <v>164784.5777780755</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>146976.4664146549</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26430,7 +26432,7 @@
         <v>9144.033827297713</v>
       </c>
       <c r="G4" t="n">
-        <v>9144.033827297713</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="H4" t="n">
         <v>14245.20557049264</v>
@@ -26448,7 +26450,7 @@
         <v>14245.20557049264</v>
       </c>
       <c r="M4" t="n">
-        <v>14245.20557049265</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="N4" t="n">
         <v>14245.20557049264</v>
@@ -26457,7 +26459,7 @@
         <v>14245.20557049264</v>
       </c>
       <c r="P4" t="n">
-        <v>9144.033827297713</v>
+        <v>14245.20557049264</v>
       </c>
     </row>
     <row r="5">
@@ -26482,34 +26484,34 @@
         <v>40584.92456175771</v>
       </c>
       <c r="G5" t="n">
-        <v>40584.9245617577</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="J5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="K5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="L5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>40584.9245617577</v>
+        <v>77718.2386057925</v>
       </c>
     </row>
     <row r="6">
@@ -26522,28 +26524,28 @@
         <v>-171779.7655899382</v>
       </c>
       <c r="C6" t="n">
+        <v>51919.93299410664</v>
+      </c>
+      <c r="D6" t="n">
         <v>51919.93299410667</v>
       </c>
-      <c r="D6" t="n">
-        <v>51919.93299410664</v>
-      </c>
       <c r="E6" t="n">
-        <v>85547.53299410667</v>
+        <v>85547.53299410664</v>
       </c>
       <c r="F6" t="n">
         <v>85547.53299410664</v>
       </c>
       <c r="G6" t="n">
-        <v>85547.53299410667</v>
+        <v>-48616.53518843759</v>
       </c>
       <c r="H6" t="n">
-        <v>-46004.98829941974</v>
+        <v>118779.5894786558</v>
       </c>
       <c r="I6" t="n">
         <v>118779.5894786558</v>
       </c>
       <c r="J6" t="n">
-        <v>-55871.75923905039</v>
+        <v>-55871.75923905035</v>
       </c>
       <c r="K6" t="n">
         <v>118779.5894786558</v>
@@ -26558,10 +26560,10 @@
         <v>118779.5894786558</v>
       </c>
       <c r="O6" t="n">
+        <v>-28196.87693599908</v>
+      </c>
+      <c r="P6" t="n">
         <v>118779.5894786558</v>
-      </c>
-      <c r="P6" t="n">
-        <v>85547.53299410664</v>
       </c>
     </row>
   </sheetData>
@@ -26802,7 +26804,7 @@
         <v>667.5152066078571</v>
       </c>
       <c r="G4" t="n">
-        <v>667.515206607857</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26829,7 +26831,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>667.515206607857</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27024,10 +27026,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>610.745296776888</v>
       </c>
       <c r="H4" t="n">
-        <v>610.7452967768884</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27048,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>610.745296776888</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>610.745296776888</v>
       </c>
       <c r="P4" t="n">
-        <v>610.7452967768884</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,25 +34701,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="N2" t="n">
-        <v>145.5272350047206</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>667.5152066078572</v>
       </c>
       <c r="Q2" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34775,16 +34777,16 @@
         <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>661.3192390158822</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34799,7 +34801,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3563415094341</v>
+        <v>118.3563415094345</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,16 +34856,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>667.5152066078571</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>667.5152066078572</v>
       </c>
-      <c r="N5" t="n">
-        <v>667.5152066078572</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>640.544895229762</v>
-      </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35027,10 +35029,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>347.9676668794093</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35091,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908102</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35100,13 +35102,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
         <v>351.017064616507</v>
@@ -35176,25 +35178,25 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>585.1784344521125</v>
+      </c>
+      <c r="O8" t="n">
         <v>667.5152066078571</v>
       </c>
-      <c r="M8" t="n">
+      <c r="P8" t="n">
         <v>667.5152066078572</v>
       </c>
-      <c r="N8" t="n">
-        <v>667.5152066078572</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>640.544895229762</v>
-      </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,22 +35254,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35410,7 +35412,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -35419,10 +35421,10 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>145.5272350047206</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>667.5152066078571</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="P11" t="n">
         <v>667.5152066078572</v>
@@ -35483,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>20.13097499434632</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>667.5152066078571</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35647,7 +35649,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -35656,7 +35658,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>145.5272350047208</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>667.515206607857</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L17" t="n">
-        <v>145.5272350047205</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35978,7 +35980,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36048,13 +36050,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36127,10 +36129,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36194,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36431,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
@@ -36513,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36528,13 +36530,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,19 +36600,19 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>60.59188538505123</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>833.0630236930783</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157523</v>
@@ -36668,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36680,19 +36682,19 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>315.3936483072348</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -36750,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -36835,13 +36837,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>60.59188538505214</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36905,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
@@ -36987,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -37069,25 +37071,25 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>508.6956131767483</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>583.0591140826373</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>170.862691669754</v>
@@ -37142,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
@@ -37224,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -37309,13 +37311,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
-        <v>60.59188538505214</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37379,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37461,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37777,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
-        <v>86.02274874679142</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37798,10 +37800,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>667.515206607857</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>667.5152066078568</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N44" t="n">
-        <v>667.5152066078567</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>640.5448952297625</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38111,7 +38113,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38181,13 +38183,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_16.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>342180.6924965107</v>
+        <v>339515.7250283532</v>
       </c>
     </row>
     <row r="7">
@@ -664,19 +664,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>71.62225901786582</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>263.3203511418006</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -828,16 +828,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>90.30617524481291</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>195.1526410376673</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>54.80958568074098</v>
       </c>
       <c r="C5" t="n">
         <v>433.7610480884109</v>
@@ -907,16 +907,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>90.71554922518695</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1068,7 +1068,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>24.34318456170476</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>23.47841976807623</v>
       </c>
       <c r="X8" t="n">
-        <v>45.50306732735552</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1305,10 +1305,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>3.13954148002296</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>86.11077229338925</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>120.9955619497016</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1609,22 +1609,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>257.62495382267</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>75.78308005187024</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,13 +1660,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1675,7 +1675,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1779,7 +1779,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>3.13954148002296</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1864,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791316623</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -2019,7 +2019,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2101,7 +2101,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791316623</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2575,7 +2575,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4126214791316623</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>136.0564930766996</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T29" t="n">
         <v>217.8665548556918</v>
@@ -2964,10 +2964,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>24.3431845617044</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3201,7 +3201,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>24.3431845617044</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561544</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
@@ -3441,7 +3441,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>18.05677735225719</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791316623</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1171.796632052941</v>
+        <v>1423.298891966344</v>
       </c>
       <c r="C2" t="n">
-        <v>1171.796632052941</v>
+        <v>1423.298891966344</v>
       </c>
       <c r="D2" t="n">
-        <v>1171.796632052941</v>
+        <v>987.3891071407882</v>
       </c>
       <c r="E2" t="n">
-        <v>1171.796632052941</v>
+        <v>553.6143622990833</v>
       </c>
       <c r="F2" t="n">
-        <v>743.9292024621484</v>
+        <v>125.746932708291</v>
       </c>
       <c r="G2" t="n">
-        <v>342.5313710854123</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H2" t="n">
         <v>53.40121652862857</v>
@@ -4336,19 +4336,19 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
-        <v>1810.336013065103</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M2" t="n">
-        <v>1840.066707136593</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N2" t="n">
-        <v>1840.066707136593</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O2" t="n">
-        <v>1840.066707136593</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>2500.906761678372</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q2" t="n">
         <v>2500.906761678372</v>
@@ -4360,22 +4360,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304467</v>
       </c>
       <c r="U2" t="n">
-        <v>2670.060826431428</v>
+        <v>2190.771296621484</v>
       </c>
       <c r="V2" t="n">
-        <v>2404.080673762943</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W2" t="n">
-        <v>1999.225219173976</v>
+        <v>1423.298891966344</v>
       </c>
       <c r="X2" t="n">
-        <v>1580.082755753287</v>
+        <v>1423.298891966344</v>
       </c>
       <c r="Y2" t="n">
-        <v>1171.796632052941</v>
+        <v>1423.298891966344</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1512.992809943912</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C3" t="n">
-        <v>1406.536348780555</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D3" t="n">
-        <v>1311.446059927108</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E3" t="n">
-        <v>1217.325645254062</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F3" t="n">
-        <v>1133.941806870223</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G3" t="n">
-        <v>1048.556717136407</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>1006.82106495262</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I3" t="n">
-        <v>1032.884738113077</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>1357.443063079289</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>2012.149109705013</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L3" t="n">
-        <v>2012.149109705013</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M3" t="n">
-        <v>2012.149109705013</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N3" t="n">
-        <v>2012.149109705013</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O3" t="n">
-        <v>2012.149109705013</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P3" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
-        <v>2552.888048337089</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
-        <v>2670.060826431428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S3" t="n">
-        <v>2606.605388879811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T3" t="n">
-        <v>2476.426745210413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U3" t="n">
-        <v>2300.090198210381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V3" t="n">
-        <v>2100.972680272381</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W3" t="n">
-        <v>1915.649926005575</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X3" t="n">
-        <v>1760.782490244455</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y3" t="n">
-        <v>1634.296711023675</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>741.4772326516127</v>
+        <v>1043.799427915185</v>
       </c>
       <c r="C4" t="n">
-        <v>568.9155211348376</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D4" t="n">
-        <v>403.0375283363603</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E4" t="n">
-        <v>233.2795245870976</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F4" t="n">
-        <v>142.0611657539532</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G4" t="n">
-        <v>142.0611657539532</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H4" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="J4" t="n">
         <v>139.9809016933184</v>
@@ -4494,7 +4494,7 @@
         <v>414.739356264454</v>
       </c>
       <c r="L4" t="n">
-        <v>832.9492380324152</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M4" t="n">
         <v>1292.433105213328</v>
@@ -4527,13 +4527,13 @@
         <v>1678.133681136788</v>
       </c>
       <c r="W4" t="n">
-        <v>1406.107276723079</v>
+        <v>1481.00980130076</v>
       </c>
       <c r="X4" t="n">
-        <v>1160.715522056492</v>
+        <v>1235.618046634173</v>
       </c>
       <c r="Y4" t="n">
-        <v>933.2958513705998</v>
+        <v>1235.618046634173</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1789.512437976118</v>
+        <v>2051.756204945986</v>
       </c>
       <c r="C5" t="n">
-        <v>1351.369965159541</v>
+        <v>1613.613732129409</v>
       </c>
       <c r="D5" t="n">
-        <v>915.4601803339856</v>
+        <v>1177.703947303853</v>
       </c>
       <c r="E5" t="n">
-        <v>481.6854354922808</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="F5" t="n">
-        <v>53.81800590148856</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G5" t="n">
-        <v>53.81800590148856</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H5" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
         <v>488.6559039815464</v>
@@ -4585,34 +4585,34 @@
         <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V5" t="n">
-        <v>2307.443876365255</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="W5" t="n">
-        <v>2307.443876365255</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="X5" t="n">
-        <v>2307.443876365255</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="Y5" t="n">
-        <v>2215.812008461025</v>
+        <v>2107.11942280532</v>
       </c>
     </row>
     <row r="6">
@@ -4640,7 +4640,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
         <v>79.46488968908616</v>
@@ -4649,19 +4649,19 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L6" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M6" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N6" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O6" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P6" t="n">
         <v>1058.729261281022</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>762.8950539462408</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C7" t="n">
-        <v>590.3333424294657</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D7" t="n">
-        <v>424.4553496309884</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E7" t="n">
-        <v>254.6973458817257</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F7" t="n">
-        <v>77.99029184348186</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G7" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H7" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I7" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
         <v>139.9809016933184</v>
@@ -4752,25 +4752,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>2510.819457729425</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T7" t="n">
-        <v>2264.94001130788</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U7" t="n">
-        <v>1986.507010560985</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V7" t="n">
-        <v>1699.551502431416</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W7" t="n">
-        <v>1427.525098017707</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X7" t="n">
-        <v>1182.13334335112</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y7" t="n">
-        <v>954.7136726652279</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1789.512437976118</v>
+        <v>893.3583100948014</v>
       </c>
       <c r="C8" t="n">
-        <v>1351.369965159541</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="D8" t="n">
-        <v>915.4601803339856</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="E8" t="n">
-        <v>481.6854354922808</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="F8" t="n">
-        <v>53.81800590148856</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G8" t="n">
-        <v>53.81800590148856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>53.40121652862857</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>53.40121652862857</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>53.40121652862857</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>53.40121652862857</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>632.7278666362199</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>2670.060826431428</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>2670.060826431428</v>
+        <v>1720.786897215837</v>
       </c>
       <c r="X8" t="n">
-        <v>2624.098132161372</v>
+        <v>1301.644433795148</v>
       </c>
       <c r="Y8" t="n">
-        <v>2215.812008461025</v>
+        <v>893.3583100948014</v>
       </c>
     </row>
     <row r="9">
@@ -4877,7 +4877,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
         <v>79.46488968908616</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>903.8972536055599</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>731.3355420887848</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>565.4575492903075</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E10" t="n">
-        <v>395.6995455410447</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F10" t="n">
-        <v>218.9924915028009</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="G10" t="n">
-        <v>53.40121652862857</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="H10" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
         <v>139.9809016933184</v>
@@ -4986,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2651.821657388744</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>2405.942210967199</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>2127.509210220304</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1840.553702090735</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1568.527297677026</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1323.135543010439</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>1095.715872324547</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1361.228219012466</v>
+        <v>970.0638449431475</v>
       </c>
       <c r="C11" t="n">
-        <v>923.085746195889</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="D11" t="n">
-        <v>487.1759613703334</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="E11" t="n">
-        <v>53.40121652862857</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="F11" t="n">
-        <v>53.40121652862857</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G11" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H11" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I11" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J11" t="n">
         <v>488.6559039815464</v>
@@ -5047,46 +5047,46 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L11" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M11" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N11" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O11" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P11" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q11" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R11" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S11" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T11" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U11" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V11" t="n">
-        <v>2307.443876365255</v>
+        <v>2223.792002549091</v>
       </c>
       <c r="W11" t="n">
-        <v>1902.588421776288</v>
+        <v>2223.792002549091</v>
       </c>
       <c r="X11" t="n">
-        <v>1483.445958355599</v>
+        <v>1804.649539128402</v>
       </c>
       <c r="Y11" t="n">
-        <v>1361.228219012466</v>
+        <v>1396.363415428055</v>
       </c>
     </row>
     <row r="12">
@@ -5114,7 +5114,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H12" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I12" t="n">
         <v>79.46488968908616</v>
@@ -5190,13 +5190,13 @@
         <v>218.9924915028009</v>
       </c>
       <c r="G13" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H13" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I13" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J13" t="n">
         <v>139.9809016933184</v>
@@ -5254,52 +5254,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1437.776784721425</v>
+        <v>1004.156428545654</v>
       </c>
       <c r="C14" t="n">
-        <v>999.6343119048488</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="D14" t="n">
-        <v>563.7245270792932</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="E14" t="n">
-        <v>129.9497822375884</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="F14" t="n">
-        <v>53.40121652862857</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G14" t="n">
-        <v>53.40121652862857</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H14" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I14" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J14" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K14" t="n">
-        <v>1149.495958523325</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="L14" t="n">
-        <v>1149.495958523325</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="M14" t="n">
-        <v>1149.495958523325</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="N14" t="n">
-        <v>1149.495958523325</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="O14" t="n">
-        <v>1293.567921177998</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P14" t="n">
-        <v>1954.407975719777</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q14" t="n">
-        <v>2500.906761678372</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R14" t="n">
         <v>2670.060826431428</v>
@@ -5308,22 +5308,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T14" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U14" t="n">
-        <v>2670.060826431428</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V14" t="n">
-        <v>2670.060826431428</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W14" t="n">
-        <v>2265.205371842461</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="X14" t="n">
-        <v>1846.062908421772</v>
+        <v>1004.156428545654</v>
       </c>
       <c r="Y14" t="n">
-        <v>1437.776784721425</v>
+        <v>1004.156428545654</v>
       </c>
     </row>
     <row r="15">
@@ -5351,7 +5351,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H15" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I15" t="n">
         <v>79.46488968908616</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>903.8972536055599</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C16" t="n">
-        <v>731.3355420887848</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D16" t="n">
-        <v>565.4575492903075</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E16" t="n">
-        <v>395.6995455410447</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F16" t="n">
-        <v>218.9924915028009</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="G16" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H16" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I16" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J16" t="n">
         <v>139.9809016933184</v>
@@ -5460,28 +5460,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R16" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S16" t="n">
-        <v>2651.821657388744</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T16" t="n">
-        <v>2405.942210967199</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U16" t="n">
-        <v>2127.509210220304</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V16" t="n">
-        <v>1840.553702090735</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W16" t="n">
-        <v>1568.527297677026</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X16" t="n">
-        <v>1323.135543010439</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y16" t="n">
-        <v>1095.715872324547</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="17">
@@ -5503,43 +5503,43 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436399</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N17" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
         <v>5029.390139722817</v>
@@ -5554,13 +5554,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5597,19 +5597,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P18" t="n">
         <v>1107.588885023173</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5700,25 +5700,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T19" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U19" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V19" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W19" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X19" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="20">
@@ -5743,10 +5743,10 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436399</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H22" t="n">
         <v>102.2608402707796</v>
@@ -5937,25 +5937,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T22" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U22" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="23">
@@ -5971,19 +5971,19 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D23" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E23" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
         <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -6217,37 +6217,37 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436399</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L26" t="n">
-        <v>1431.851786213076</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423627</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6302,28 +6302,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>414.500552094942</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
         <v>1648.327823655249</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1090.187678435286</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>917.6259669185112</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>751.7479741200339</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>581.9899703707711</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>405.2829163325273</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>239.691641358355</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6411,25 +6411,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2313.799635050031</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>2026.844126920461</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1754.817722506753</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1509.425967840165</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1282.006297154273</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6451,28 +6451,28 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6502,13 +6502,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6545,19 +6545,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>811.7546776883914</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C31" t="n">
-        <v>639.1929661716164</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D31" t="n">
-        <v>473.3149733731391</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E31" t="n">
-        <v>303.5569696238763</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F31" t="n">
-        <v>126.8499155856325</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6648,25 +6648,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T31" t="n">
-        <v>2313.799635050031</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U31" t="n">
-        <v>2035.366634303136</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.411126173566</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W31" t="n">
-        <v>1476.384721759858</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X31" t="n">
-        <v>1230.99296709327</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y31" t="n">
-        <v>1003.573296407379</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="32">
@@ -6688,13 +6688,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6703,25 +6703,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>605.8694973157604</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>1680.92946356862</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>2837.977298779171</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>3963.708282215618</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6739,13 +6739,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6919,16 +6919,16 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
         <v>102.6776296436396</v>
@@ -6937,37 +6937,37 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U35" t="n">
         <v>4550.100609912873</v>
@@ -6976,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -7019,19 +7019,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P36" t="n">
         <v>1107.588885023173</v>
@@ -7162,13 +7162,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7213,13 +7213,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7256,19 +7256,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P39" t="n">
         <v>1107.588885023173</v>
@@ -7402,10 +7402,10 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436399</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I41" t="n">
         <v>102.2608402707796</v>
@@ -7420,7 +7420,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N41" t="n">
         <v>2588.899621423627</v>
@@ -7630,19 +7630,19 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G44" t="n">
         <v>391.8077842004232</v>
       </c>
       <c r="H44" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I44" t="n">
         <v>102.2608402707796</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1181.319000882661</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C46" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D46" t="n">
-        <v>842.8792965674086</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E46" t="n">
-        <v>673.1212928181459</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F46" t="n">
-        <v>496.4142387799021</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G46" t="n">
-        <v>330.8229638057297</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
         <v>102.2608402707796</v>
@@ -7833,25 +7833,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
-        <v>2683.3639582443</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U46" t="n">
-        <v>2404.930957497405</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V46" t="n">
-        <v>2117.975449367836</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W46" t="n">
-        <v>1845.949044954127</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X46" t="n">
-        <v>1600.55729028754</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y46" t="n">
-        <v>1373.137619601648</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
   </sheetData>
@@ -7984,10 +7984,10 @@
         <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>667.5152066078572</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M2" t="n">
-        <v>30.03100411261585</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -7999,7 +7999,7 @@
         <v>667.5152066078572</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8060,7 +8060,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>661.3192390158822</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -8221,7 +8221,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>145.5272350047208</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8233,7 +8233,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8297,22 +8297,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8452,10 +8452,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8464,13 +8464,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>585.1784344521125</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.5152066078571</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8695,7 +8695,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8704,10 +8704,10 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>145.5272350047208</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8929,28 +8929,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
+        <v>316.389926674475</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>145.5272350047208</v>
-      </c>
       <c r="P14" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9245,22 +9245,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9874,19 +9874,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>60.59188538505123</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>753.9218057523904</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9898,7 +9898,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,22 +9950,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>315.3936483072348</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -10111,19 +10111,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>288.735183296506</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10193,22 +10193,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10351,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>508.6956131767483</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
@@ -10594,22 +10594,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,22 +10667,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10904,22 +10904,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11068,10 +11068,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N41" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -22552,19 +22552,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>325.7615940451029</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -22600,22 +22600,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>95.67042942371108</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -22716,16 +22716,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>84.63380825304843</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22767,13 +22767,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>74.15349933190413</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>367.2269890993177</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -22795,16 +22795,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,16 +22834,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
@@ -22852,7 +22852,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>313.4877132381562</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -22956,7 +22956,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -22992,7 +22992,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23020,22 +23020,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -23071,22 +23071,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>377.3284802750008</v>
       </c>
       <c r="X8" t="n">
-        <v>369.4479714591268</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23193,10 +23193,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>135.3636110865063</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -23226,10 +23226,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>347.6502757950217</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -23320,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>283.2077005136415</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23497,22 +23497,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>176.1360942657409</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>347.8056752430141</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -23548,13 +23548,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23667,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23940,7 +23940,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24177,7 +24177,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>2.446659489829642</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24651,13 +24651,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24852,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24888,7 +24888,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>120.446375214272</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,10 +26073,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>465184.6054250567</v>
+        <v>465184.6054250566</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>465184.6054250566</v>
+        <v>465184.6054250565</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>465184.6054250566</v>
+        <v>465184.6054250565</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>724696.6117651357</v>
+        <v>724696.6117651354</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>724696.6117651357</v>
+        <v>724696.6117651354</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>724696.6117651357</v>
+        <v>724696.6117651354</v>
       </c>
     </row>
     <row r="12">
@@ -26316,10 +26316,10 @@
         <v>135276.4913831621</v>
       </c>
       <c r="C2" t="n">
-        <v>135276.4913831621</v>
+        <v>135276.491383162</v>
       </c>
       <c r="D2" t="n">
-        <v>135276.4913831621</v>
+        <v>135276.491383162</v>
       </c>
       <c r="E2" t="n">
         <v>135276.4913831621</v>
@@ -26331,13 +26331,13 @@
         <v>210743.033654941</v>
       </c>
       <c r="H2" t="n">
-        <v>210743.033654941</v>
+        <v>210743.0336549409</v>
       </c>
       <c r="I2" t="n">
         <v>210743.0336549409</v>
       </c>
       <c r="J2" t="n">
-        <v>210743.033654941</v>
+        <v>210743.0336549409</v>
       </c>
       <c r="K2" t="n">
         <v>210743.0336549409</v>
@@ -26346,13 +26346,13 @@
         <v>210743.0336549409</v>
       </c>
       <c r="M2" t="n">
-        <v>210743.0336549409</v>
+        <v>210743.033654941</v>
       </c>
       <c r="N2" t="n">
         <v>210743.0336549409</v>
       </c>
       <c r="O2" t="n">
-        <v>210743.033654941</v>
+        <v>210743.0336549409</v>
       </c>
       <c r="P2" t="n">
         <v>210743.0336549409</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>167396.1246670934</v>
+        <v>167396.1246670935</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>146976.4664146549</v>
+        <v>146976.466414655</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>9144.033827297713</v>
       </c>
       <c r="D4" t="n">
-        <v>9144.033827297713</v>
+        <v>9144.033827297711</v>
       </c>
       <c r="E4" t="n">
         <v>9144.033827297713</v>
@@ -26472,46 +26472,46 @@
         <v>74212.52456175772</v>
       </c>
       <c r="C5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="F5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="K5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="L5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-171779.7655899382</v>
+        <v>-172274.6558185195</v>
       </c>
       <c r="C6" t="n">
-        <v>51919.93299410664</v>
+        <v>51425.04276552537</v>
       </c>
       <c r="D6" t="n">
-        <v>51919.93299410667</v>
+        <v>51425.04276552537</v>
       </c>
       <c r="E6" t="n">
-        <v>85547.53299410664</v>
+        <v>85052.64276552538</v>
       </c>
       <c r="F6" t="n">
-        <v>85547.53299410664</v>
+        <v>85052.64276552538</v>
       </c>
       <c r="G6" t="n">
-        <v>-48616.53518843759</v>
+        <v>-48639.75952782033</v>
       </c>
       <c r="H6" t="n">
-        <v>118779.5894786558</v>
+        <v>118756.3651392731</v>
       </c>
       <c r="I6" t="n">
-        <v>118779.5894786558</v>
+        <v>118756.3651392731</v>
       </c>
       <c r="J6" t="n">
-        <v>-55871.75923905035</v>
+        <v>-55894.98357843304</v>
       </c>
       <c r="K6" t="n">
-        <v>118779.5894786558</v>
+        <v>118756.3651392731</v>
       </c>
       <c r="L6" t="n">
-        <v>118779.5894786558</v>
+        <v>118756.3651392731</v>
       </c>
       <c r="M6" t="n">
-        <v>118779.5894786558</v>
+        <v>118756.3651392732</v>
       </c>
       <c r="N6" t="n">
-        <v>118779.5894786558</v>
+        <v>118756.3651392731</v>
       </c>
       <c r="O6" t="n">
-        <v>-28196.87693599908</v>
+        <v>-28220.10127538185</v>
       </c>
       <c r="P6" t="n">
-        <v>118779.5894786558</v>
+        <v>118756.3651392731</v>
       </c>
     </row>
   </sheetData>
@@ -26792,16 +26792,16 @@
         <v>667.5152066078571</v>
       </c>
       <c r="C4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="F4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>610.745296776888</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>610.745296776888</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>610.745296776888</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34704,10 +34704,10 @@
         <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>667.5152066078572</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M2" t="n">
-        <v>30.03100411261585</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -34719,7 +34719,7 @@
         <v>667.5152066078572</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34777,10 +34777,10 @@
         <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>661.3192390158822</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34795,13 +34795,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3563415094345</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,16 +34856,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
@@ -34941,7 +34941,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>145.5272350047208</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34953,7 +34953,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35011,28 +35011,28 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35172,10 +35172,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35184,13 +35184,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>585.1784344521125</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.5152066078571</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35248,7 +35248,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
@@ -35415,7 +35415,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -35424,10 +35424,10 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>145.5272350047208</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
@@ -35649,28 +35649,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
+        <v>316.389926674475</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>145.5272350047208</v>
-      </c>
       <c r="P14" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36594,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>60.59188538505123</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>753.9218057523904</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36618,7 +36618,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,22 +36670,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>315.3936483072348</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -36831,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>288.735183296506</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36907,28 +36907,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -37071,7 +37071,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>508.6956131767483</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -37092,7 +37092,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,28 +37381,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37618,28 +37618,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37788,10 +37788,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N41" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
